--- a/biology/Botanique/Square_René-Viviani/Square_René-Viviani.xlsx
+++ b/biology/Botanique/Square_René-Viviani/Square_René-Viviani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Ren%C3%A9-Viviani</t>
+          <t>Square_René-Viviani</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square René-Viviani est un espace vert situé dans le 5e arrondissement de Paris, près de la Seine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Ren%C3%A9-Viviani</t>
+          <t>Square_René-Viviani</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’une superficie de 4 265 m2, le square est situé entre le quai de Montebello sur la Seine au nord, et l'église Saint-Julien-le-Pauvre au sud, à l’emplacement d’une ancienne annexe de l’Hôtel-Dieu et de maisons. Il possède trois entrées : l'une par le 2, rue du Fouarre ; l'autre au niveau du 25, quai de Montebello, au croisement avec la rue Saint-Julien-le-Pauvre et une autre plus haut, le long de cette même voie.
-Il est accessible aux personnes à mobilité réduite sur certaines zones. Il compte un point d'eau potable. Les chiens doivent y être tenus en laisse dans les allées[1].
+Il est accessible aux personnes à mobilité réduite sur certaines zones. Il compte un point d'eau potable. Les chiens doivent y être tenus en laisse dans les allées.
 Le square René-Viviani est desservi par les lignes B et C du RER à la gare Saint-Michel - Notre-Dame, par les lignes de métro 4 à la station Saint-Michel et 10 à la station Cluny-La Sorbonne.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Ren%C3%A9-Viviani</t>
+          <t>Square_René-Viviani</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1928, le square René-Viviani est situé au nord et autour de l'église Saint-Julien-le-Pauvre. Une partie de la façade arrière du lieu de culte donne directement sur le jardin. L'église était située sur une des routes du pèlerinage de Saint-Jacques-de-Compostelle. Dante et Pétrarque y ont notamment prié[1]. En vis-à-vis du square, de l'autre côté de la Seine, se trouve la cathédrale Notre-Dame.
-En 1939, Paul Tournon est chargé d’établir les plans du « musée de la Civilisation chrétienne », autour de l’église Saint-Julien-le-Pauvre. Le projet est abandonné en 1941[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1928, le square René-Viviani est situé au nord et autour de l'église Saint-Julien-le-Pauvre. Une partie de la façade arrière du lieu de culte donne directement sur le jardin. L'église était située sur une des routes du pèlerinage de Saint-Jacques-de-Compostelle. Dante et Pétrarque y ont notamment prié. En vis-à-vis du square, de l'autre côté de la Seine, se trouve la cathédrale Notre-Dame.
+En 1939, Paul Tournon est chargé d’établir les plans du « musée de la Civilisation chrétienne », autour de l’église Saint-Julien-le-Pauvre. Le projet est abandonné en 1941.
 Le square doit son nom à l'avocat et homme politique français René Viviani (1863-1925), un temps député du 5e arrondissement de Paris à la fin du XIXe siècle, premier ministre du Travail et inventeur de l'impôt sur le revenu.
-En novembre 2019, la dénomination « allée Amandine-Giraud » est attribuée à une allée du square, côté rue du Fouarre, rendant hommage à une plongeuse de la Brigade fluviale de Paris morte en service au cours d'un entraînement de plongée dans la Seine au niveau du Petit-Pont-Cardinal-Lustiger le 5 janvier 2018[3],[1].
+En novembre 2019, la dénomination « allée Amandine-Giraud » est attribuée à une allée du square, côté rue du Fouarre, rendant hommage à une plongeuse de la Brigade fluviale de Paris morte en service au cours d'un entraînement de plongée dans la Seine au niveau du Petit-Pont-Cardinal-Lustiger le 5 janvier 2018,.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Ren%C3%A9-Viviani</t>
+          <t>Square_René-Viviani</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +595,15 @@
           <t>Éléments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square a la particularité d'abriter un robinier (Robinia pseudoacacia) planté en 1601 par le botaniste Jean Robin, qui introduisit l'espèce en France. Cet arbre, haut de 11 m et d'une circonférence de 3,85 m, est classé « arbre remarquable » et est considéré comme le plus vieil arbre de Paris[4],[5],[6],[1].
-Le square comprend aussi, côté rue Lagrange, un frêne à fleurs et, longeant la rue Saint-Julien-le-Pauvre, un pterocarya[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square a la particularité d'abriter un robinier (Robinia pseudoacacia) planté en 1601 par le botaniste Jean Robin, qui introduisit l'espèce en France. Cet arbre, haut de 11 m et d'une circonférence de 3,85 m, est classé « arbre remarquable » et est considéré comme le plus vieil arbre de Paris.
+Le square comprend aussi, côté rue Lagrange, un frêne à fleurs et, longeant la rue Saint-Julien-le-Pauvre, un pterocarya.
 			Le robinier planté en 1601, réputé le plus vieil arbre de Paris.
 			Le même robinier en hiver.
-Dans le square se trouvent également une fontaine de bronze moderne du sculpteur Georges Jeanclos (1996, remplaçant une fontaine Wallace), une stèle à la mémoire des enfants juifs en bas âge du 5e arrondissement morts en déportation pendant la Seconde Guerre mondiale[Note 1], un puits du XIIe siècle[Note 2], ainsi que des vestiges de balustrades, pinacles et chapiteaux gothiques[1].
+Dans le square se trouvent également une fontaine de bronze moderne du sculpteur Georges Jeanclos (1996, remplaçant une fontaine Wallace), une stèle à la mémoire des enfants juifs en bas âge du 5e arrondissement morts en déportation pendant la Seconde Guerre mondiale[Note 1], un puits du XIIe siècle[Note 2], ainsi que des vestiges de balustrades, pinacles et chapiteaux gothiques.
 			Stèle à la mémoire des enfants juifs en bas âge déportés.
 			Ancien puits.
 			Le square en direction de Notre-Dame.
